--- a/python/math/polynomial/examples-polynomial.xlsx
+++ b/python/math/polynomial/examples-polynomial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="lin-Simple" sheetId="1" state="visible" r:id="rId3"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="116">
   <si>
     <t xml:space="preserve">Slope Calculation</t>
   </si>
@@ -89,10 +89,16 @@
     <t xml:space="preserve">Sample Series</t>
   </si>
   <si>
+    <t xml:space="preserve">Basic Properties</t>
+  </si>
+  <si>
     <t xml:space="preserve">Least Square Calculation</t>
   </si>
   <si>
     <t xml:space="preserve">Correlation Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual Calculation (yᵢ = β̅₀ + β̅₁xᵢ)</t>
   </si>
   <si>
     <t xml:space="preserve">y value</t>
@@ -111,6 +117,15 @@
   </si>
   <si>
     <t xml:space="preserve">(yᵢ-ȳ)²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit(xᵢ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ϵᵢ (residual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ϵᵢ²</t>
   </si>
   <si>
     <t xml:space="preserve">∑x (total)</t>
@@ -134,6 +149,21 @@
     <t xml:space="preserve">∑(yᵢ-ȳ)²</t>
   </si>
   <si>
+    <t xml:space="preserve">SSR = ∑ϵᵢ²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbiased estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β̅₁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β̅₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">∑(xᵢ-x̄)²/(n-1)</t>
   </si>
   <si>
@@ -141,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">∑(xᵢ-x̄)(yᵢ-ȳ)/(n-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE = SSR/df</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -191,6 +224,12 @@
     <t xml:space="preserve">covariance</t>
   </si>
   <si>
+    <t xml:space="preserve">sample mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree of freedom</t>
+  </si>
+  <si>
     <t xml:space="preserve">√(∑(xᵢ-x̄)²/(n-1))</t>
   </si>
   <si>
@@ -218,10 +257,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">std err slope</t>
+  </si>
+  <si>
     <t xml:space="preserve">x̄ (mean)</t>
   </si>
   <si>
     <t xml:space="preserve">ȳ (mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
   </si>
   <si>
     <t xml:space="preserve">Equation (y = b + mx)</t>
@@ -263,6 +308,9 @@
     <t xml:space="preserve">r (pearson)</t>
   </si>
   <si>
+    <t xml:space="preserve">SE(β₁)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note</t>
   </si>
   <si>
@@ -272,7 +320,19 @@
     <t xml:space="preserve">R² for linear is r²</t>
   </si>
   <si>
+    <t xml:space="preserve">t-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value</t>
+  </si>
+  <si>
     <t xml:space="preserve">adjusted R²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β̅₁/SE(β₁)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula</t>
   </si>
   <si>
     <t xml:space="preserve">Not necessarry for simple LQ</t>
@@ -406,10 +466,10 @@
     <numFmt numFmtId="167" formatCode="00\."/>
     <numFmt numFmtId="168" formatCode="#,##0.00000000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="General"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -452,12 +512,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="10.5"/>
       <name val="Calibri"/>
@@ -465,15 +519,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -522,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -542,6 +589,15 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF009688"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF9E9E9E"/>
       </left>
       <right/>
       <top/>
@@ -595,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,11 +720,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,11 +740,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,27 +764,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,10 +800,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,19 +808,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -826,7 +894,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF9E9E9E"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1012,11 +1080,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="88509827"/>
-        <c:axId val="46784920"/>
+        <c:axId val="39614498"/>
+        <c:axId val="25355269"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88509827"/>
+        <c:axId val="39614498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,12 +1116,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46784920"/>
+        <c:crossAx val="25355269"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46784920"/>
+        <c:axId val="25355269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88509827"/>
+        <c:crossAx val="39614498"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1318,11 +1386,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21019856"/>
-        <c:axId val="93756164"/>
+        <c:axId val="95219069"/>
+        <c:axId val="37438929"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21019856"/>
+        <c:axId val="95219069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,12 +1422,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93756164"/>
+        <c:crossAx val="37438929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93756164"/>
+        <c:axId val="37438929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21019856"/>
+        <c:crossAx val="95219069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,11 +1692,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78870993"/>
-        <c:axId val="24864325"/>
+        <c:axId val="75065503"/>
+        <c:axId val="19478245"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78870993"/>
+        <c:axId val="75065503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,12 +1728,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24864325"/>
+        <c:crossAx val="19478245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24864325"/>
+        <c:axId val="19478245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78870993"/>
+        <c:crossAx val="75065503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1769,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1780,7 +1848,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3193920" y="914040"/>
-        <a:ext cx="5756760" cy="3236040"/>
+        <a:ext cx="5756400" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1804,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1815,7 +1883,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3193920" y="914040"/>
-        <a:ext cx="5769720" cy="3133440"/>
+        <a:ext cx="5769360" cy="3133080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1839,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1850,7 +1918,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3193920" y="914040"/>
-        <a:ext cx="5769720" cy="3133440"/>
+        <a:ext cx="5769360" cy="3133080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1977,8 +2045,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2542,15 +2610,15 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="42"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2561,16 +2629,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2594,30 +2662,30 @@
         <v>345</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="36" t="n">
         <f aca="false">B9^1</f>
         <v>10</v>
       </c>
-      <c r="G9" s="35" t="n">
+      <c r="G9" s="38" t="n">
         <f aca="false">B9^2</f>
         <v>100</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="K9" s="39" t="n">
         <f aca="false">C9</f>
         <v>345</v>
       </c>
@@ -2631,22 +2699,22 @@
         <v>412</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="36" t="n">
         <f aca="false">B10^1</f>
         <v>11</v>
       </c>
-      <c r="G10" s="35" t="n">
+      <c r="G10" s="38" t="n">
         <f aca="false">B10^2</f>
         <v>121</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="36" t="n">
+      <c r="I10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="39" t="n">
         <f aca="false">C10</f>
         <v>412</v>
       </c>
@@ -2660,22 +2728,22 @@
         <v>485</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="36" t="n">
         <f aca="false">B11^1</f>
         <v>12</v>
       </c>
-      <c r="G11" s="35" t="n">
+      <c r="G11" s="38" t="n">
         <f aca="false">B11^2</f>
         <v>144</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="36" t="n">
+      <c r="I11" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="39" t="n">
         <f aca="false">C11</f>
         <v>485</v>
       </c>
@@ -2688,23 +2756,23 @@
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2714,18 +2782,18 @@
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2"/>
-      <c r="C17" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="n">
+      <c r="C17" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="n">
         <f aca="false" t="array" ref="E17:G19">TRANSPOSE(E9:G11)</f>
         <v>1</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="39" t="n">
+      <c r="G17" s="42" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="10"/>
@@ -2735,13 +2803,13 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="41" t="n">
         <v>10</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="G18" s="39" t="n">
+      <c r="G18" s="42" t="n">
         <v>12</v>
       </c>
       <c r="I18" s="10"/>
@@ -2750,13 +2818,13 @@
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="E19" s="38" t="n">
+      <c r="E19" s="41" t="n">
         <v>100</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>121</v>
       </c>
-      <c r="G19" s="39" t="n">
+      <c r="G19" s="42" t="n">
         <v>144</v>
       </c>
       <c r="I19" s="10"/>
@@ -2769,42 +2837,42 @@
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
-      <c r="C21" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38" t="n">
+      <c r="C21" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="n">
         <f aca="false" t="array" ref="E21:G23">MMULT(E17:G19,E9:G11)</f>
         <v>3</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="G21" s="39" t="n">
+      <c r="G21" s="42" t="n">
         <v>365</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="38" t="n">
+      <c r="E22" s="41" t="n">
         <v>33</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>365</v>
       </c>
-      <c r="G22" s="39" t="n">
+      <c r="G22" s="42" t="n">
         <v>4059</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="38" t="n">
+      <c r="E23" s="41" t="n">
         <v>365</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>4059</v>
       </c>
-      <c r="G23" s="39" t="n">
+      <c r="G23" s="42" t="n">
         <v>45377</v>
       </c>
       <c r="H23" s="11"/>
@@ -2815,30 +2883,30 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38" t="n">
+      <c r="C25" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41" t="n">
         <f aca="false" t="array" ref="E25:G27">MINVERSE(E21:G23)</f>
         <v>21780.9999999992</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>-3976.49999999985</v>
       </c>
-      <c r="G25" s="39" t="n">
+      <c r="G25" s="42" t="n">
         <v>180.499999999994</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="38" t="n">
+      <c r="E26" s="41" t="n">
         <v>-3976.49999999986</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>726.499999999974</v>
       </c>
-      <c r="G26" s="39" t="n">
+      <c r="G26" s="42" t="n">
         <v>-32.9999999999988</v>
       </c>
       <c r="H26" s="11"/>
@@ -2848,13 +2916,13 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38" t="n">
+      <c r="E27" s="41" t="n">
         <v>180.499999999993</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>-32.9999999999988</v>
       </c>
-      <c r="G27" s="39" t="n">
+      <c r="G27" s="42" t="n">
         <v>1.49999999999995</v>
       </c>
       <c r="H27" s="11"/>
@@ -2915,11 +2983,11 @@
     <row r="29" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="40" t="n">
+      <c r="C29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="43" t="n">
         <f aca="false" t="array" ref="E29:E31">MMULT(E17:G19,K9:K11)</f>
         <v>1242</v>
       </c>
@@ -2955,7 +3023,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="40" t="n">
+      <c r="E30" s="43" t="n">
         <v>13802</v>
       </c>
       <c r="F30" s="10"/>
@@ -2990,7 +3058,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="40" t="n">
+      <c r="E31" s="43" t="n">
         <v>154192</v>
       </c>
       <c r="F31" s="10"/>
@@ -3053,13 +3121,13 @@
     <row r="33" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="40" t="n">
+      <c r="E33" s="43" t="n">
         <f aca="false" t="array" ref="E33:E35">MMULT(E25:G27,E29:E31)</f>
         <v>5.00000002980232</v>
       </c>
@@ -3095,7 +3163,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="40" t="n">
+      <c r="E34" s="43" t="n">
         <v>3.99999999906868</v>
       </c>
       <c r="F34" s="10"/>
@@ -3130,7 +3198,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="40" t="n">
+      <c r="E35" s="43" t="n">
         <v>3.00000000008731</v>
       </c>
       <c r="F35" s="10"/>
@@ -3189,7 +3257,7 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3225,7 +3293,7 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3364,7 +3432,7 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C42" s="14" t="n">
         <f aca="false">E34</f>
@@ -3403,7 +3471,7 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C43" s="14" t="n">
         <f aca="false">E35</f>
@@ -3476,8 +3544,8 @@
       <c r="D45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3684,27 +3752,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3713,7 +3781,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -3722,49 +3790,49 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <v>0</v>
       </c>
@@ -3778,7 +3846,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>1</v>
@@ -3793,7 +3861,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>2</v>
@@ -3808,7 +3876,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>3</v>
@@ -3823,7 +3891,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>4</v>
@@ -3838,7 +3906,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>5</v>
@@ -3853,7 +3921,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>6</v>
@@ -3868,7 +3936,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="7" t="n">
         <f aca="false">B18+1</f>
         <v>7</v>
@@ -3883,7 +3951,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="n">
         <f aca="false">B19+1</f>
         <v>8</v>
@@ -3898,7 +3966,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7" t="n">
         <f aca="false">B20+1</f>
         <v>9</v>
@@ -3913,7 +3981,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7" t="n">
         <f aca="false">B21+1</f>
         <v>10</v>
@@ -3928,7 +3996,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="7" t="n">
         <f aca="false">B22+1</f>
         <v>11</v>
@@ -3943,7 +4011,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="7" t="n">
         <f aca="false">B23+1</f>
         <v>12</v>
@@ -3958,7 +4026,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
@@ -4047,59 +4115,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7" t="n">
         <v>0</v>
       </c>
@@ -4125,16 +4193,16 @@
         <f aca="false">B6^3</f>
         <v>0</v>
       </c>
-      <c r="K6" s="33" t="n">
+      <c r="K6" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="M6" s="36" t="n">
         <f aca="false" t="array" ref="M6:M18">MMULT(F6:I18,K6:K9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="n">
         <f aca="false">B6+1</f>
         <v>1</v>
@@ -4162,15 +4230,15 @@
         <f aca="false">B7^3</f>
         <v>1</v>
       </c>
-      <c r="K7" s="33" t="n">
+      <c r="K7" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="M7" s="36" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="7" t="n">
         <f aca="false">B7+1</f>
         <v>2</v>
@@ -4198,15 +4266,15 @@
         <f aca="false">B8^3</f>
         <v>8</v>
       </c>
-      <c r="K8" s="33" t="n">
+      <c r="K8" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="33" t="n">
+      <c r="M8" s="36" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7" t="n">
         <f aca="false">B8+1</f>
         <v>3</v>
@@ -4234,15 +4302,15 @@
         <f aca="false">B9^3</f>
         <v>27</v>
       </c>
-      <c r="K9" s="33" t="n">
+      <c r="K9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="33" t="n">
+      <c r="M9" s="36" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="n">
         <f aca="false">B9+1</f>
         <v>4</v>
@@ -4270,12 +4338,12 @@
         <f aca="false">B10^3</f>
         <v>64</v>
       </c>
-      <c r="M10" s="33" t="n">
+      <c r="M10" s="36" t="n">
         <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="n">
         <f aca="false">B10+1</f>
         <v>5</v>
@@ -4303,12 +4371,12 @@
         <f aca="false">B11^3</f>
         <v>125</v>
       </c>
-      <c r="M11" s="33" t="n">
+      <c r="M11" s="36" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <f aca="false">B11+1</f>
         <v>6</v>
@@ -4336,12 +4404,12 @@
         <f aca="false">B12^3</f>
         <v>216</v>
       </c>
-      <c r="M12" s="33" t="n">
+      <c r="M12" s="36" t="n">
         <v>569</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>7</v>
@@ -4369,12 +4437,12 @@
         <f aca="false">B13^3</f>
         <v>343</v>
       </c>
-      <c r="M13" s="33" t="n">
+      <c r="M13" s="36" t="n">
         <v>866</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>8</v>
@@ -4402,12 +4470,12 @@
         <f aca="false">B14^3</f>
         <v>512</v>
       </c>
-      <c r="M14" s="33" t="n">
+      <c r="M14" s="36" t="n">
         <v>1253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>9</v>
@@ -4435,12 +4503,12 @@
         <f aca="false">B15^3</f>
         <v>729</v>
       </c>
-      <c r="M15" s="33" t="n">
+      <c r="M15" s="36" t="n">
         <v>1742</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>10</v>
@@ -4468,12 +4536,12 @@
         <f aca="false">B16^3</f>
         <v>1000</v>
       </c>
-      <c r="M16" s="33" t="n">
+      <c r="M16" s="36" t="n">
         <v>2345</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>11</v>
@@ -4501,12 +4569,12 @@
         <f aca="false">B17^3</f>
         <v>1331</v>
       </c>
-      <c r="M17" s="33" t="n">
+      <c r="M17" s="36" t="n">
         <v>3074</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>12</v>
@@ -4534,12 +4602,12 @@
         <f aca="false">B18^3</f>
         <v>1728</v>
       </c>
-      <c r="M18" s="33" t="n">
+      <c r="M18" s="36" t="n">
         <v>3941</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
@@ -4624,14 +4692,14 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4642,16 +4710,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4675,34 +4743,34 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="36" t="n">
         <f aca="false">B9^1</f>
         <v>0</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="36" t="n">
         <f aca="false">B9^2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="38" t="n">
         <f aca="false">B9^3</f>
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="L9" s="39" t="n">
         <f aca="false">C9</f>
         <v>5</v>
       </c>
@@ -4717,28 +4785,28 @@
         <v>14</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="36" t="n">
         <f aca="false">B10^1</f>
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="36" t="n">
         <f aca="false">B10^2</f>
         <v>1</v>
       </c>
-      <c r="H10" s="35" t="n">
+      <c r="H10" s="38" t="n">
         <f aca="false">B10^3</f>
         <v>1</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="36" t="s">
-        <v>59</v>
+      <c r="J10" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="36" t="n">
+      <c r="L10" s="39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4752,28 +4820,28 @@
         <v>41</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="36" t="n">
         <f aca="false">B11^1</f>
         <v>2</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="36" t="n">
         <f aca="false">B11^2</f>
         <v>4</v>
       </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="38" t="n">
         <f aca="false">B11^3</f>
         <v>8</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="36" t="s">
-        <v>84</v>
+      <c r="J11" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="36" t="n">
+      <c r="L11" s="39" t="n">
         <v>41</v>
       </c>
     </row>
@@ -4787,28 +4855,28 @@
         <v>98</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="37" t="n">
         <f aca="false">B12^0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="36" t="n">
         <f aca="false">B12^1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="36" t="n">
         <f aca="false">B12^2</f>
         <v>9</v>
       </c>
-      <c r="H12" s="35" t="n">
+      <c r="H12" s="38" t="n">
         <f aca="false">B12^3</f>
         <v>27</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="36" t="s">
-        <v>91</v>
+      <c r="J12" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="36" t="n">
+      <c r="L12" s="39" t="n">
         <v>98</v>
       </c>
     </row>
@@ -4822,25 +4890,25 @@
         <v>197</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="37" t="n">
         <f aca="false">B13^0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="33" t="n">
+      <c r="F13" s="36" t="n">
         <f aca="false">B13^1</f>
         <v>4</v>
       </c>
-      <c r="G13" s="33" t="n">
+      <c r="G13" s="36" t="n">
         <f aca="false">B13^2</f>
         <v>16</v>
       </c>
-      <c r="H13" s="35" t="n">
+      <c r="H13" s="38" t="n">
         <f aca="false">B13^3</f>
         <v>64</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="36" t="n">
+      <c r="L13" s="39" t="n">
         <v>197</v>
       </c>
     </row>
@@ -4854,25 +4922,25 @@
         <v>350</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="37" t="n">
         <f aca="false">B14^0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="33" t="n">
+      <c r="F14" s="36" t="n">
         <f aca="false">B14^1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="33" t="n">
+      <c r="G14" s="36" t="n">
         <f aca="false">B14^2</f>
         <v>25</v>
       </c>
-      <c r="H14" s="35" t="n">
+      <c r="H14" s="38" t="n">
         <f aca="false">B14^3</f>
         <v>125</v>
       </c>
       <c r="I14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="36" t="n">
+      <c r="L14" s="39" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4886,25 +4954,25 @@
         <v>569</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="37" t="n">
         <f aca="false">B15^0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="33" t="n">
+      <c r="F15" s="36" t="n">
         <f aca="false">B15^1</f>
         <v>6</v>
       </c>
-      <c r="G15" s="33" t="n">
+      <c r="G15" s="36" t="n">
         <f aca="false">B15^2</f>
         <v>36</v>
       </c>
-      <c r="H15" s="35" t="n">
+      <c r="H15" s="38" t="n">
         <f aca="false">B15^3</f>
         <v>216</v>
       </c>
       <c r="I15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="36" t="n">
+      <c r="L15" s="39" t="n">
         <v>569</v>
       </c>
     </row>
@@ -4918,25 +4986,25 @@
         <v>866</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="37" t="n">
         <f aca="false">B16^0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="33" t="n">
+      <c r="F16" s="36" t="n">
         <f aca="false">B16^1</f>
         <v>7</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="36" t="n">
         <f aca="false">B16^2</f>
         <v>49</v>
       </c>
-      <c r="H16" s="35" t="n">
+      <c r="H16" s="38" t="n">
         <f aca="false">B16^3</f>
         <v>343</v>
       </c>
       <c r="I16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="36" t="n">
+      <c r="L16" s="39" t="n">
         <v>866</v>
       </c>
     </row>
@@ -4950,25 +5018,25 @@
         <v>1253</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="37" t="n">
         <f aca="false">B17^0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="33" t="n">
+      <c r="F17" s="36" t="n">
         <f aca="false">B17^1</f>
         <v>8</v>
       </c>
-      <c r="G17" s="33" t="n">
+      <c r="G17" s="36" t="n">
         <f aca="false">B17^2</f>
         <v>64</v>
       </c>
-      <c r="H17" s="35" t="n">
+      <c r="H17" s="38" t="n">
         <f aca="false">B17^3</f>
         <v>512</v>
       </c>
       <c r="I17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="36" t="n">
+      <c r="L17" s="39" t="n">
         <v>1253</v>
       </c>
     </row>
@@ -4982,25 +5050,25 @@
         <v>1742</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="34" t="n">
+      <c r="E18" s="37" t="n">
         <f aca="false">B18^0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="33" t="n">
+      <c r="F18" s="36" t="n">
         <f aca="false">B18^1</f>
         <v>9</v>
       </c>
-      <c r="G18" s="33" t="n">
+      <c r="G18" s="36" t="n">
         <f aca="false">B18^2</f>
         <v>81</v>
       </c>
-      <c r="H18" s="35" t="n">
+      <c r="H18" s="38" t="n">
         <f aca="false">B18^3</f>
         <v>729</v>
       </c>
       <c r="I18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="36" t="n">
+      <c r="L18" s="39" t="n">
         <v>1742</v>
       </c>
     </row>
@@ -5014,25 +5082,25 @@
         <v>2345</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="34" t="n">
+      <c r="E19" s="37" t="n">
         <f aca="false">B19^0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="33" t="n">
+      <c r="F19" s="36" t="n">
         <f aca="false">B19^1</f>
         <v>10</v>
       </c>
-      <c r="G19" s="33" t="n">
+      <c r="G19" s="36" t="n">
         <f aca="false">B19^2</f>
         <v>100</v>
       </c>
-      <c r="H19" s="35" t="n">
+      <c r="H19" s="38" t="n">
         <f aca="false">B19^3</f>
         <v>1000</v>
       </c>
       <c r="I19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="36" t="n">
+      <c r="L19" s="39" t="n">
         <v>2345</v>
       </c>
     </row>
@@ -5046,25 +5114,25 @@
         <v>3074</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="34" t="n">
+      <c r="E20" s="37" t="n">
         <f aca="false">B20^0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="33" t="n">
+      <c r="F20" s="36" t="n">
         <f aca="false">B20^1</f>
         <v>11</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="36" t="n">
         <f aca="false">B20^2</f>
         <v>121</v>
       </c>
-      <c r="H20" s="35" t="n">
+      <c r="H20" s="38" t="n">
         <f aca="false">B20^3</f>
         <v>1331</v>
       </c>
       <c r="I20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="36" t="n">
+      <c r="L20" s="39" t="n">
         <v>3074</v>
       </c>
     </row>
@@ -5078,25 +5146,25 @@
         <v>3941</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="37" t="n">
         <f aca="false">B21^0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="33" t="n">
+      <c r="F21" s="36" t="n">
         <f aca="false">B21^1</f>
         <v>12</v>
       </c>
-      <c r="G21" s="33" t="n">
+      <c r="G21" s="36" t="n">
         <f aca="false">B21^2</f>
         <v>144</v>
       </c>
-      <c r="H21" s="35" t="n">
+      <c r="H21" s="38" t="n">
         <f aca="false">B21^3</f>
         <v>1728</v>
       </c>
       <c r="I21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="36" t="n">
+      <c r="L21" s="39" t="n">
         <v>3941</v>
       </c>
     </row>
@@ -5108,23 +5176,23 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5134,11 +5202,11 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
-      <c r="C27" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38" t="n">
+      <c r="C27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="n">
         <f aca="false" t="array" ref="E27:H30">MMULT(TRANSPOSE(E9:H21),E9:H21)</f>
         <v>13</v>
       </c>
@@ -5148,12 +5216,12 @@
       <c r="G27" s="10" t="n">
         <v>650</v>
       </c>
-      <c r="H27" s="39" t="n">
+      <c r="H27" s="42" t="n">
         <v>6084</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="41" t="n">
         <v>78</v>
       </c>
       <c r="F28" s="10" t="n">
@@ -5162,12 +5230,12 @@
       <c r="G28" s="10" t="n">
         <v>6084</v>
       </c>
-      <c r="H28" s="39" t="n">
+      <c r="H28" s="42" t="n">
         <v>60710</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="38" t="n">
+      <c r="E29" s="41" t="n">
         <v>650</v>
       </c>
       <c r="F29" s="10" t="n">
@@ -5176,12 +5244,12 @@
       <c r="G29" s="10" t="n">
         <v>60710</v>
       </c>
-      <c r="H29" s="39" t="n">
+      <c r="H29" s="42" t="n">
         <v>630708</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="38" t="n">
+      <c r="E30" s="41" t="n">
         <v>6084</v>
       </c>
       <c r="F30" s="10" t="n">
@@ -5190,7 +5258,7 @@
       <c r="G30" s="10" t="n">
         <v>630708</v>
       </c>
-      <c r="H30" s="39" t="n">
+      <c r="H30" s="42" t="n">
         <v>6735950</v>
       </c>
     </row>
@@ -5231,11 +5299,11 @@
     <row r="32" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38" t="n">
+      <c r="C32" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41" t="n">
         <f aca="false" t="array" ref="E32:H35">MINVERSE(E27:H30)</f>
         <v>0.728021978021982</v>
       </c>
@@ -5245,7 +5313,7 @@
       <c r="G32" s="10" t="n">
         <v>0.0686813186813193</v>
       </c>
-      <c r="H32" s="39" t="n">
+      <c r="H32" s="42" t="n">
         <v>-0.00320512820512824</v>
       </c>
       <c r="I32" s="11"/>
@@ -5278,7 +5346,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="41" t="n">
         <v>-0.430860805860808</v>
       </c>
       <c r="F33" s="10" t="n">
@@ -5287,7 +5355,7 @@
       <c r="G33" s="10" t="n">
         <v>-0.0785464535464539</v>
       </c>
-      <c r="H33" s="39" t="n">
+      <c r="H33" s="42" t="n">
         <v>0.00403069153069155</v>
       </c>
       <c r="I33" s="11"/>
@@ -5320,7 +5388,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="38" t="n">
+      <c r="E34" s="41" t="n">
         <v>0.068681318681319</v>
       </c>
       <c r="F34" s="10" t="n">
@@ -5329,7 +5397,7 @@
       <c r="G34" s="10" t="n">
         <v>0.0162337662337663</v>
       </c>
-      <c r="H34" s="39" t="n">
+      <c r="H34" s="42" t="n">
         <v>-0.000874125874125876</v>
       </c>
       <c r="I34" s="11"/>
@@ -5358,7 +5426,7 @@
       <c r="AF34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="38" t="n">
+      <c r="E35" s="41" t="n">
         <v>-0.00320512820512822</v>
       </c>
       <c r="F35" s="10" t="n">
@@ -5367,7 +5435,7 @@
       <c r="G35" s="10" t="n">
         <v>-0.000874125874125876</v>
       </c>
-      <c r="H35" s="39" t="n">
+      <c r="H35" s="42" t="n">
         <v>4.85625485625486E-005</v>
       </c>
     </row>
@@ -5377,27 +5445,27 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="40" t="n">
+      <c r="C37" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="43" t="n">
         <f aca="false" t="array" ref="E37:E40">MMULT(TRANSPOSE(E9:H21),L9:L21)</f>
         <v>14495</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="40" t="n">
+      <c r="E38" s="43" t="n">
         <v>142662</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="40" t="n">
+      <c r="E39" s="43" t="n">
         <v>1471132</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="40" t="n">
+      <c r="E40" s="43" t="n">
         <v>15637284</v>
       </c>
     </row>
@@ -5408,28 +5476,28 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E42" s="43" t="n">
         <f aca="false" t="array" ref="E42:E45">MMULT(E32:H35,E37:E40)</f>
         <v>5.00000000000728</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="40" t="n">
+      <c r="E43" s="43" t="n">
         <v>4.00000000000819</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="40" t="n">
+      <c r="E44" s="43" t="n">
         <v>3.00000000000296</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="40" t="n">
+      <c r="E45" s="43" t="n">
         <v>1.99999999999996</v>
       </c>
     </row>
@@ -5455,7 +5523,7 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5491,7 +5559,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5623,7 +5691,7 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C52" s="14" t="n">
         <f aca="false">E43</f>
@@ -5662,7 +5730,7 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C53" s="14" t="n">
         <f aca="false">E44</f>
@@ -5701,7 +5769,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C54" s="14" t="n">
         <f aca="false">E45</f>
@@ -5767,8 +5835,8 @@
       <c r="D56" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -6048,15 +6116,15 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="42"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6067,16 +6135,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6100,34 +6168,34 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="36" t="n">
         <f aca="false">B9^1</f>
         <v>0</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="36" t="n">
         <f aca="false">B9^2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="38" t="n">
         <f aca="false">B9^3</f>
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="L9" s="39" t="n">
         <f aca="false">C9</f>
         <v>5</v>
       </c>
@@ -6142,28 +6210,28 @@
         <v>14</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="36" t="n">
         <f aca="false">B10^1</f>
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="36" t="n">
         <f aca="false">B10^2</f>
         <v>1</v>
       </c>
-      <c r="H10" s="35" t="n">
+      <c r="H10" s="38" t="n">
         <f aca="false">B10^3</f>
         <v>1</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="36" t="s">
-        <v>59</v>
+      <c r="J10" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="36" t="n">
+      <c r="L10" s="39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6177,28 +6245,28 @@
         <v>41</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="36" t="n">
         <f aca="false">B11^1</f>
         <v>2</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="36" t="n">
         <f aca="false">B11^2</f>
         <v>4</v>
       </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="38" t="n">
         <f aca="false">B11^3</f>
         <v>8</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="36" t="s">
-        <v>84</v>
+      <c r="J11" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="36" t="n">
+      <c r="L11" s="39" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6212,28 +6280,28 @@
         <v>98</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="37" t="n">
         <f aca="false">B12^0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="36" t="n">
         <f aca="false">B12^1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="36" t="n">
         <f aca="false">B12^2</f>
         <v>9</v>
       </c>
-      <c r="H12" s="35" t="n">
+      <c r="H12" s="38" t="n">
         <f aca="false">B12^3</f>
         <v>27</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="36" t="s">
-        <v>91</v>
+      <c r="J12" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="36" t="n">
+      <c r="L12" s="39" t="n">
         <v>98</v>
       </c>
     </row>
@@ -6245,23 +6313,23 @@
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6271,11 +6339,11 @@
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
-      <c r="C18" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38" t="n">
+      <c r="C18" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41" t="n">
         <f aca="false" t="array" ref="E18:H21">TRANSPOSE(E9:H12)</f>
         <v>1</v>
       </c>
@@ -6285,7 +6353,7 @@
       <c r="G18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="39" t="n">
+      <c r="H18" s="42" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="10"/>
@@ -6295,7 +6363,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="38" t="n">
+      <c r="E19" s="41" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="10" t="n">
@@ -6304,7 +6372,7 @@
       <c r="G19" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="39" t="n">
+      <c r="H19" s="42" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="10"/>
@@ -6313,7 +6381,7 @@
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="41" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="10" t="n">
@@ -6322,7 +6390,7 @@
       <c r="G20" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="39" t="n">
+      <c r="H20" s="42" t="n">
         <v>9</v>
       </c>
       <c r="I20" s="10"/>
@@ -6331,7 +6399,7 @@
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="E21" s="38" t="n">
+      <c r="E21" s="41" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
@@ -6340,7 +6408,7 @@
       <c r="G21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H21" s="39" t="n">
+      <c r="H21" s="42" t="n">
         <v>27</v>
       </c>
       <c r="I21" s="10"/>
@@ -6353,11 +6421,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
-      <c r="C23" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38" t="n">
+      <c r="C23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41" t="n">
         <f aca="false" t="array" ref="E23:H26">MMULT(E18:H21,E9:H12)</f>
         <v>4</v>
       </c>
@@ -6367,12 +6435,12 @@
       <c r="G23" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="H23" s="39" t="n">
+      <c r="H23" s="42" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="38" t="n">
+      <c r="E24" s="41" t="n">
         <v>6</v>
       </c>
       <c r="F24" s="10" t="n">
@@ -6381,12 +6449,12 @@
       <c r="G24" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="H24" s="39" t="n">
+      <c r="H24" s="42" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="38" t="n">
+      <c r="E25" s="41" t="n">
         <v>14</v>
       </c>
       <c r="F25" s="10" t="n">
@@ -6395,12 +6463,12 @@
       <c r="G25" s="10" t="n">
         <v>98</v>
       </c>
-      <c r="H25" s="39" t="n">
+      <c r="H25" s="42" t="n">
         <v>276</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="38" t="n">
+      <c r="E26" s="41" t="n">
         <v>36</v>
       </c>
       <c r="F26" s="10" t="n">
@@ -6409,7 +6477,7 @@
       <c r="G26" s="10" t="n">
         <v>276</v>
       </c>
-      <c r="H26" s="39" t="n">
+      <c r="H26" s="42" t="n">
         <v>794</v>
       </c>
     </row>
@@ -6419,11 +6487,11 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38" t="n">
+      <c r="C28" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41" t="n">
         <f aca="false" t="array" ref="E28:H31">MINVERSE(E23:H26)</f>
         <v>1</v>
       </c>
@@ -6433,12 +6501,12 @@
       <c r="G28" s="10" t="n">
         <v>0.999999999999994</v>
       </c>
-      <c r="H28" s="39" t="n">
+      <c r="H28" s="42" t="n">
         <v>-0.166666666666665</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="38" t="n">
+      <c r="E29" s="41" t="n">
         <v>-1.83333333333332</v>
       </c>
       <c r="F29" s="10" t="n">
@@ -6447,12 +6515,12 @@
       <c r="G29" s="10" t="n">
         <v>-12.4999999999999</v>
       </c>
-      <c r="H29" s="39" t="n">
+      <c r="H29" s="42" t="n">
         <v>2.61111111111108</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="38" t="n">
+      <c r="E30" s="41" t="n">
         <v>0.99999999999999</v>
       </c>
       <c r="F30" s="10" t="n">
@@ -6461,12 +6529,12 @@
       <c r="G30" s="10" t="n">
         <v>11.4999999999999</v>
       </c>
-      <c r="H30" s="39" t="n">
+      <c r="H30" s="42" t="n">
         <v>-2.49999999999997</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="38" t="n">
+      <c r="E31" s="41" t="n">
         <v>-0.166666666666664</v>
       </c>
       <c r="F31" s="10" t="n">
@@ -6475,7 +6543,7 @@
       <c r="G31" s="10" t="n">
         <v>-2.49999999999997</v>
       </c>
-      <c r="H31" s="39" t="n">
+      <c r="H31" s="42" t="n">
         <v>0.55555555555555</v>
       </c>
     </row>
@@ -6485,27 +6553,27 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="40" t="n">
+      <c r="C33" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="43" t="n">
         <f aca="false" t="array" ref="E33:E36">MMULT(E18:H21,L9:L12)</f>
         <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="40" t="n">
+      <c r="E34" s="43" t="n">
         <v>390</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="40" t="n">
+      <c r="E35" s="43" t="n">
         <v>1060</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="40" t="n">
+      <c r="E36" s="43" t="n">
         <v>2988</v>
       </c>
     </row>
@@ -6516,28 +6584,28 @@
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E38" s="43" t="n">
         <f aca="false" t="array" ref="E38:E41">MMULT(E28:H31,E33:E36)</f>
         <v>4.9999999999956</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="40" t="n">
+      <c r="E39" s="43" t="n">
         <v>4.0000000000046</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="40" t="n">
+      <c r="E40" s="43" t="n">
         <v>3.00000000000023</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="40" t="n">
+      <c r="E41" s="43" t="n">
         <v>1.99999999999971</v>
       </c>
     </row>
@@ -6569,7 +6637,7 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -6605,7 +6673,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -6743,7 +6811,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C48" s="14" t="n">
         <f aca="false">E39</f>
@@ -6782,7 +6850,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C49" s="14" t="n">
         <f aca="false">E40</f>
@@ -6821,7 +6889,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C50" s="14" t="n">
         <f aca="false">E41</f>
@@ -6893,8 +6961,8 @@
       <c r="D52" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -7079,10 +7147,10 @@
     <tabColor rgb="FF90CAF9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7099,78 +7167,178 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="19" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>4.99999999999795</v>
       </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="7" t="n">
         <f aca="false">B7-$B$30</f>
         <v>-6</v>
@@ -7179,6 +7347,7 @@
         <f aca="false">C7-$C$30</f>
         <v>-174.000000000002</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="7" t="n">
         <f aca="false">E7^2</f>
         <v>36</v>
@@ -7187,6 +7356,7 @@
         <f aca="false">E7*F7</f>
         <v>1044.00000000001</v>
       </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="7" t="n">
         <f aca="false">E7^2</f>
         <v>36</v>
@@ -7199,15 +7369,31 @@
         <f aca="false">E7*F7</f>
         <v>1044.00000000001</v>
       </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B7</f>
+        <v>-61.0000000000011</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <f aca="false">C7-O7</f>
+        <v>65.999999999999</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <f aca="false">P7^2</f>
+        <v>4355.99999999987</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>11.9999999999987</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="7" t="n">
         <f aca="false">B8-$B$30</f>
         <v>-5</v>
@@ -7216,6 +7402,7 @@
         <f aca="false">C8-$C$30</f>
         <v>-167.000000000002</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="7" t="n">
         <f aca="false">E8^2</f>
         <v>25</v>
@@ -7224,6 +7411,7 @@
         <f aca="false">E8*F8</f>
         <v>835.000000000009</v>
       </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="7" t="n">
         <f aca="false">E8^2</f>
         <v>25</v>
@@ -7236,15 +7424,31 @@
         <f aca="false">E8*F8</f>
         <v>835.000000000009</v>
       </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B8</f>
+        <v>-21.0000000000008</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <f aca="false">C8-O8</f>
+        <v>32.9999999999995</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <f aca="false">P8^2</f>
+        <v>1088.99999999997</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="19" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>24.9999999999993</v>
       </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="7" t="n">
         <f aca="false">B9-$B$30</f>
         <v>-4</v>
@@ -7253,35 +7457,53 @@
         <f aca="false">C9-$C$30</f>
         <v>-154.000000000001</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="7" t="n">
         <f aca="false">E9^2</f>
         <v>16</v>
       </c>
       <c r="I9" s="8" t="n">
         <f aca="false">E9*F9</f>
-        <v>616.000000000005</v>
-      </c>
+        <v>616.000000000004</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="7" t="n">
         <f aca="false">E9^2</f>
         <v>16</v>
       </c>
       <c r="L9" s="8" t="n">
         <f aca="false">F9^2</f>
-        <v>23716.0000000004</v>
+        <v>23716.0000000003</v>
       </c>
       <c r="M9" s="8" t="n">
         <f aca="false">E9*F9</f>
-        <v>616.000000000005</v>
-      </c>
+        <v>616.000000000004</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B9</f>
+        <v>18.9999999999994</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <f aca="false">C9-O9</f>
+        <v>5.99999999999987</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <f aca="false">P9^2</f>
+        <v>35.9999999999984</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>43.9999999999998</v>
       </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="7" t="n">
         <f aca="false">B10-$B$30</f>
         <v>-3</v>
@@ -7290,6 +7512,7 @@
         <f aca="false">C10-$C$30</f>
         <v>-135.000000000001</v>
       </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="7" t="n">
         <f aca="false">E10^2</f>
         <v>9</v>
@@ -7298,6 +7521,7 @@
         <f aca="false">E10*F10</f>
         <v>405.000000000002</v>
       </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="7" t="n">
         <f aca="false">E10^2</f>
         <v>9</v>
@@ -7310,15 +7534,31 @@
         <f aca="false">E10*F10</f>
         <v>405.000000000002</v>
       </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B10</f>
+        <v>58.9999999999997</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <f aca="false">C10-O10</f>
+        <v>-14.9999999999999</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <f aca="false">P10^2</f>
+        <v>224.999999999996</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="19" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>69.0000000000003</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="7" t="n">
         <f aca="false">B11-$B$30</f>
         <v>-2</v>
@@ -7327,6 +7567,7 @@
         <f aca="false">C11-$C$30</f>
         <v>-110</v>
       </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="7" t="n">
         <f aca="false">E11^2</f>
         <v>4</v>
@@ -7335,6 +7576,7 @@
         <f aca="false">E11*F11</f>
         <v>220</v>
       </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="7" t="n">
         <f aca="false">E11^2</f>
         <v>4</v>
@@ -7347,60 +7589,95 @@
         <f aca="false">E11*F11</f>
         <v>220</v>
       </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B11</f>
+        <v>98.9999999999999</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <f aca="false">C11-O11</f>
+        <v>-29.9999999999996</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <f aca="false">P11^2</f>
+        <v>899.999999999977</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="19" t="n">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>100.000000000001</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="7" t="n">
         <f aca="false">B12-$B$30</f>
         <v>-1</v>
       </c>
       <c r="F12" s="8" t="n">
         <f aca="false">C12-$C$30</f>
-        <v>-78.9999999999998</v>
-      </c>
+        <v>-78.9999999999994</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="7" t="n">
         <f aca="false">E12^2</f>
         <v>1</v>
       </c>
       <c r="I12" s="8" t="n">
         <f aca="false">E12*F12</f>
-        <v>78.9999999999998</v>
-      </c>
+        <v>78.9999999999994</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="7" t="n">
         <f aca="false">E12^2</f>
         <v>1</v>
       </c>
       <c r="L12" s="8" t="n">
         <f aca="false">F12^2</f>
-        <v>6240.99999999996</v>
+        <v>6240.99999999991</v>
       </c>
       <c r="M12" s="8" t="n">
         <f aca="false">E12*F12</f>
-        <v>78.9999999999998</v>
-      </c>
+        <v>78.9999999999994</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B12</f>
+        <v>139</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <f aca="false">C12-O12</f>
+        <v>-38.9999999999992</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <f aca="false">P12^2</f>
+        <v>1520.99999999993</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="19" t="n">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>137.000000000001</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="7" t="n">
         <f aca="false">B13-$B$30</f>
         <v>0</v>
       </c>
       <c r="F13" s="8" t="n">
         <f aca="false">C13-$C$30</f>
-        <v>-41.9999999999995</v>
-      </c>
+        <v>-41.9999999999994</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="7" t="n">
         <f aca="false">E13^2</f>
         <v>0</v>
@@ -7409,6 +7686,7 @@
         <f aca="false">E13*F13</f>
         <v>-0</v>
       </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="7" t="n">
         <f aca="false">E13^2</f>
         <v>0</v>
@@ -7421,126 +7699,196 @@
         <f aca="false">E13*F13</f>
         <v>-0</v>
       </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B13</f>
+        <v>179</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <f aca="false">C13-O13</f>
+        <v>-41.9999999999994</v>
+      </c>
+      <c r="Q13" s="8" t="n">
+        <f aca="false">P13^2</f>
+        <v>1763.99999999995</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="19" t="n">
         <v>7</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>180.000000000001</v>
       </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="7" t="n">
         <f aca="false">B14-$B$30</f>
         <v>1</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14-$C$30</f>
-        <v>1.0000000000008</v>
-      </c>
+        <v>1.0000000000006</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="7" t="n">
         <f aca="false">E14^2</f>
         <v>1</v>
       </c>
       <c r="I14" s="8" t="n">
         <f aca="false">E14*F14</f>
-        <v>1.0000000000008</v>
-      </c>
+        <v>1.0000000000006</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="7" t="n">
         <f aca="false">E14^2</f>
         <v>1</v>
       </c>
       <c r="L14" s="8" t="n">
         <f aca="false">F14^2</f>
-        <v>1.00000000000159</v>
+        <v>1.00000000000119</v>
       </c>
       <c r="M14" s="8" t="n">
         <f aca="false">E14*F14</f>
-        <v>1.0000000000008</v>
-      </c>
+        <v>1.0000000000006</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B14</f>
+        <v>219.000000000001</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <f aca="false">C14-O14</f>
+        <v>-38.9999999999997</v>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <f aca="false">P14^2</f>
+        <v>1520.99999999997</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="19" t="n">
         <v>8</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>229.000000000001</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="7" t="n">
         <f aca="false">B15-$B$30</f>
         <v>2</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15-$C$30</f>
-        <v>50.0000000000009</v>
-      </c>
+        <v>50.0000000000006</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="7" t="n">
         <f aca="false">E15^2</f>
         <v>4</v>
       </c>
       <c r="I15" s="8" t="n">
         <f aca="false">E15*F15</f>
-        <v>100.000000000002</v>
-      </c>
+        <v>100.000000000001</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="7" t="n">
         <f aca="false">E15^2</f>
         <v>4</v>
       </c>
       <c r="L15" s="8" t="n">
         <f aca="false">F15^2</f>
-        <v>2500.00000000009</v>
+        <v>2500.00000000006</v>
       </c>
       <c r="M15" s="8" t="n">
         <f aca="false">E15*F15</f>
-        <v>100.000000000002</v>
-      </c>
+        <v>100.000000000001</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B15</f>
+        <v>259.000000000001</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <f aca="false">C15-O15</f>
+        <v>-29.9999999999999</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <f aca="false">P15^2</f>
+        <v>899.999999999995</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="19" t="n">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>284.000000000002</v>
       </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="7" t="n">
         <f aca="false">B16-$B$30</f>
         <v>3</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16-$C$30</f>
-        <v>105.000000000001</v>
-      </c>
+        <v>105.000000000002</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="7" t="n">
         <f aca="false">E16^2</f>
         <v>9</v>
       </c>
       <c r="I16" s="8" t="n">
         <f aca="false">E16*F16</f>
-        <v>315.000000000003</v>
-      </c>
+        <v>315.000000000005</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="7" t="n">
         <f aca="false">E16^2</f>
         <v>9</v>
       </c>
       <c r="L16" s="8" t="n">
         <f aca="false">F16^2</f>
-        <v>11025.0000000002</v>
+        <v>11025.0000000003</v>
       </c>
       <c r="M16" s="8" t="n">
         <f aca="false">E16*F16</f>
-        <v>315.000000000003</v>
-      </c>
+        <v>315.000000000005</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B16</f>
+        <v>299.000000000001</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <f aca="false">C16-O16</f>
+        <v>-14.9999999999991</v>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <f aca="false">P16^2</f>
+        <v>224.999999999974</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="19" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>345.000000000001</v>
       </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="7" t="n">
         <f aca="false">B17-$B$30</f>
         <v>4</v>
@@ -7549,35 +7897,53 @@
         <f aca="false">C17-$C$30</f>
         <v>166.000000000001</v>
       </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="7" t="n">
         <f aca="false">E17^2</f>
         <v>16</v>
       </c>
       <c r="I17" s="8" t="n">
         <f aca="false">E17*F17</f>
-        <v>664.000000000004</v>
-      </c>
+        <v>664.000000000003</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="7" t="n">
         <f aca="false">E17^2</f>
         <v>16</v>
       </c>
       <c r="L17" s="8" t="n">
         <f aca="false">F17^2</f>
-        <v>27556.0000000003</v>
+        <v>27556.0000000002</v>
       </c>
       <c r="M17" s="8" t="n">
         <f aca="false">E17*F17</f>
-        <v>664.000000000004</v>
-      </c>
+        <v>664.000000000003</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B17</f>
+        <v>339.000000000001</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <f aca="false">C17-O17</f>
+        <v>5.99999999999966</v>
+      </c>
+      <c r="Q17" s="8" t="n">
+        <f aca="false">P17^2</f>
+        <v>35.9999999999959</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="19" t="n">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>412.000000000001</v>
       </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="7" t="n">
         <f aca="false">B18-$B$30</f>
         <v>5</v>
@@ -7586,6 +7952,7 @@
         <f aca="false">C18-$C$30</f>
         <v>233.000000000001</v>
       </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="7" t="n">
         <f aca="false">E18^2</f>
         <v>25</v>
@@ -7594,27 +7961,44 @@
         <f aca="false">E18*F18</f>
         <v>1165</v>
       </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="7" t="n">
         <f aca="false">E18^2</f>
         <v>25</v>
       </c>
       <c r="L18" s="8" t="n">
         <f aca="false">F18^2</f>
-        <v>54289.0000000004</v>
+        <v>54289.0000000003</v>
       </c>
       <c r="M18" s="8" t="n">
         <f aca="false">E18*F18</f>
         <v>1165</v>
       </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B18</f>
+        <v>379.000000000002</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <f aca="false">C18-O18</f>
+        <v>32.9999999999994</v>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <f aca="false">P18^2</f>
+        <v>1088.99999999996</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="19" t="n">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>485.000000000001</v>
       </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="7" t="n">
         <f aca="false">B19-$B$30</f>
         <v>6</v>
@@ -7623,6 +8007,7 @@
         <f aca="false">C19-$C$30</f>
         <v>306.000000000001</v>
       </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="7" t="n">
         <f aca="false">E19^2</f>
         <v>36</v>
@@ -7631,61 +8016,99 @@
         <f aca="false">E19*F19</f>
         <v>1836</v>
       </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="7" t="n">
         <f aca="false">E19^2</f>
         <v>36</v>
       </c>
       <c r="L19" s="8" t="n">
         <f aca="false">F19^2</f>
-        <v>93636.0000000005</v>
+        <v>93636.0000000004</v>
       </c>
       <c r="M19" s="8" t="n">
         <f aca="false">E19*F19</f>
         <v>1836</v>
       </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="7" t="n">
+        <f aca="false">$I$26+$H$26*B19</f>
+        <v>419.000000000002</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <f aca="false">C19-O19</f>
+        <v>65.9999999999992</v>
+      </c>
+      <c r="Q19" s="8" t="n">
+        <f aca="false">P19^2</f>
+        <v>4355.99999999989</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="20"/>
       <c r="I20" s="21"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="20"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
       <c r="B22" s="19" t="n">
         <f aca="false">SUM(B7:B19)</f>
         <v>78</v>
@@ -7694,6 +8117,7 @@
         <f aca="false">SUM(C7:C19)</f>
         <v>2327.00000000001</v>
       </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="19" t="n">
         <f aca="false">SUM(E7:E19)</f>
         <v>0</v>
@@ -7702,6 +8126,7 @@
         <f aca="false">SUM(F7:F19)</f>
         <v>0</v>
       </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(H7:H19)</f>
         <v>182</v>
@@ -7710,72 +8135,131 @@
         <f aca="false">SUM(I7:I19)</f>
         <v>7280.00000000005</v>
       </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="19" t="n">
         <f aca="false">SUM(K7:K19)</f>
         <v>182</v>
       </c>
       <c r="L22" s="8" t="n">
         <f aca="false">SUM(L7:L19)</f>
-        <v>309218.000000004</v>
+        <v>309218.000000003</v>
       </c>
       <c r="M22" s="8" t="n">
         <f aca="false">SUM(M7:M19)</f>
         <v>7280.00000000005</v>
       </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="24" t="n">
+        <f aca="false">SUM(Q7:Q19)</f>
+        <v>18017.9999999995</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="24" t="n">
+        <f aca="false">Q22/$E$30</f>
+        <v>1637.99999999995</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
       <c r="B26" s="19" t="n">
         <f aca="false">COUNT(B7:B19)</f>
         <v>13</v>
@@ -7784,6 +8268,7 @@
         <f aca="false">COUNT(C7:C19)</f>
         <v>13</v>
       </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="19" t="n">
         <f aca="false">COUNT(B7:B19)-1</f>
         <v>12</v>
@@ -7792,167 +8277,340 @@
         <f aca="false">COUNT(C7:C19)-1</f>
         <v>12</v>
       </c>
-      <c r="H26" s="24" t="n">
+      <c r="G26" s="1"/>
+      <c r="H26" s="26" t="n">
         <f aca="false">I22/H22</f>
-        <v>40.0000000000003</v>
-      </c>
-      <c r="I26" s="25" t="n">
+        <v>40.0000000000002</v>
+      </c>
+      <c r="I26" s="27" t="n">
         <f aca="false">C30-H26*B30</f>
-        <v>-61.0000000000012</v>
-      </c>
-      <c r="K26" s="24" t="n">
+        <v>-61.0000000000011</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="26" t="n">
         <f aca="false">K22/E26</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="L26" s="25" t="n">
+      <c r="L26" s="27" t="n">
         <f aca="false">L22/F26</f>
-        <v>25768.166666667</v>
-      </c>
-      <c r="M26" s="25" t="n">
+        <v>25768.1666666669</v>
+      </c>
+      <c r="M26" s="27" t="n">
         <f aca="false">M22/E26</f>
-        <v>606.666666666671</v>
-      </c>
+        <v>606.66666666667</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>45</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="H29" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>51</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="24" t="n">
+      <c r="A30" s="1"/>
+      <c r="B30" s="26" t="n">
         <f aca="false">B22/B26</f>
         <v>6</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="27" t="n">
         <f aca="false">C22/C26</f>
         <v>179</v>
       </c>
-      <c r="H30" s="28" t="str">
+      <c r="D30" s="1"/>
+      <c r="E30" s="24" t="n">
+        <f aca="false">COUNT(B7:B19)-2</f>
+        <v>11</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="str">
         <f aca="false">CONCATENATE("y = ",TEXT(I26,"#.##0,00")," + ",TEXT(H26,"#.##0,00"),".x")</f>
         <v>y = -61,00 + 40,00.x</v>
       </c>
-      <c r="K30" s="24" t="n">
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="26" t="n">
         <f aca="false">SQRT(K26)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="L30" s="25" t="n">
+      <c r="L30" s="27" t="n">
         <f aca="false">SQRT(L26)</f>
         <v>160.524660618445</v>
       </c>
-      <c r="M30" s="25" t="n">
+      <c r="M30" s="27" t="n">
         <f aca="false">M26/(K30*L30)</f>
         <v>0.970427962120069</v>
       </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="29" t="n">
+        <f aca="false">SQRT(Q25/K22)</f>
+        <v>2.99999999999996</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="K32" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="27"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="28"/>
       <c r="M32" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="K33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="25" t="n">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="27" t="n">
         <f aca="false">M30^2</f>
         <v>0.941730429664511</v>
       </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="K34" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="27"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="28"/>
       <c r="M34" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="30" t="n">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="27" t="n">
         <f aca="false">1-(1-M33)*(B26-1)/(B26-1-1)</f>
         <v>0.936433195997648</v>
       </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="29" t="n">
+        <f aca="false">H26/Q30</f>
+        <v>13.3333333333336</v>
+      </c>
+      <c r="R35" s="32" t="n">
+        <f aca="false">_xlfn.T.DIST.2T(Q35,$E$30)</f>
+        <v>3.91117071946751E-008</v>
+      </c>
+      <c r="S35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K35:L35"/>
   </mergeCells>
@@ -7988,27 +8646,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -8017,7 +8675,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -8026,31 +8684,31 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="n">
         <v>0</v>
       </c>
@@ -8064,7 +8722,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="n">
         <f aca="false">B10+1</f>
         <v>1</v>
@@ -8079,7 +8737,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <f aca="false">B11+1</f>
         <v>2</v>
@@ -8094,7 +8752,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>3</v>
@@ -8109,7 +8767,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>4</v>
@@ -8124,7 +8782,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>5</v>
@@ -8139,7 +8797,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>6</v>
@@ -8154,7 +8812,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>7</v>
@@ -8169,7 +8827,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>8</v>
@@ -8184,7 +8842,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="7" t="n">
         <f aca="false">B18+1</f>
         <v>9</v>
@@ -8199,7 +8857,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="n">
         <f aca="false">B19+1</f>
         <v>10</v>
@@ -8214,7 +8872,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7" t="n">
         <f aca="false">B20+1</f>
         <v>11</v>
@@ -8229,7 +8887,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7" t="n">
         <f aca="false">B21+1</f>
         <v>12</v>
@@ -8244,7 +8902,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
@@ -8335,53 +8993,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7" t="n">
         <v>0</v>
       </c>
@@ -8399,16 +9057,16 @@
         <f aca="false">B6^1</f>
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="33" t="n">
+      <c r="K6" s="36" t="n">
         <f aca="false" t="array" ref="K6:K18">MMULT(F6:G18,I6:I7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="n">
         <f aca="false">B6+1</f>
         <v>1</v>
@@ -8428,15 +9086,15 @@
         <f aca="false">B7^1</f>
         <v>1</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="33" t="n">
+      <c r="K7" s="36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="7" t="n">
         <f aca="false">B7+1</f>
         <v>2</v>
@@ -8456,13 +9114,13 @@
         <f aca="false">B8^1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="K8" s="33" t="n">
+      <c r="I8" s="36"/>
+      <c r="K8" s="36" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7" t="n">
         <f aca="false">B8+1</f>
         <v>3</v>
@@ -8482,13 +9140,13 @@
         <f aca="false">B9^1</f>
         <v>3</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="K9" s="33" t="n">
+      <c r="I9" s="36"/>
+      <c r="K9" s="36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="n">
         <f aca="false">B9+1</f>
         <v>4</v>
@@ -8508,12 +9166,12 @@
         <f aca="false">B10^1</f>
         <v>4</v>
       </c>
-      <c r="K10" s="33" t="n">
+      <c r="K10" s="36" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="n">
         <f aca="false">B10+1</f>
         <v>5</v>
@@ -8533,12 +9191,12 @@
         <f aca="false">B11^1</f>
         <v>5</v>
       </c>
-      <c r="K11" s="33" t="n">
+      <c r="K11" s="36" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <f aca="false">B11+1</f>
         <v>6</v>
@@ -8558,12 +9216,12 @@
         <f aca="false">B12^1</f>
         <v>6</v>
       </c>
-      <c r="K12" s="33" t="n">
+      <c r="K12" s="36" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>7</v>
@@ -8583,12 +9241,12 @@
         <f aca="false">B13^1</f>
         <v>7</v>
       </c>
-      <c r="K13" s="33" t="n">
+      <c r="K13" s="36" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>8</v>
@@ -8608,12 +9266,12 @@
         <f aca="false">B14^1</f>
         <v>8</v>
       </c>
-      <c r="K14" s="33" t="n">
+      <c r="K14" s="36" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>9</v>
@@ -8633,12 +9291,12 @@
         <f aca="false">B15^1</f>
         <v>9</v>
       </c>
-      <c r="K15" s="33" t="n">
+      <c r="K15" s="36" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>10</v>
@@ -8658,12 +9316,12 @@
         <f aca="false">B16^1</f>
         <v>10</v>
       </c>
-      <c r="K16" s="33" t="n">
+      <c r="K16" s="36" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>11</v>
@@ -8683,12 +9341,12 @@
         <f aca="false">B17^1</f>
         <v>11</v>
       </c>
-      <c r="K17" s="33" t="n">
+      <c r="K17" s="36" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>12</v>
@@ -8708,12 +9366,12 @@
         <f aca="false">B18^1</f>
         <v>12</v>
       </c>
-      <c r="K18" s="33" t="n">
+      <c r="K18" s="36" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
@@ -8797,14 +9455,14 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8815,16 +9473,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8848,26 +9506,26 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="38" t="n">
         <f aca="false">B9^1</f>
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="J9" s="39" t="n">
         <f aca="false">C9</f>
         <v>5</v>
       </c>
@@ -8884,19 +9542,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="38" t="n">
         <f aca="false">B10^1</f>
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>59</v>
+      <c r="H10" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="36" t="n">
+      <c r="J10" s="39" t="n">
         <f aca="false">C10</f>
         <v>9</v>
       </c>
@@ -8913,16 +9571,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="38" t="n">
         <f aca="false">B11^1</f>
         <v>2</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="36" t="n">
+      <c r="J11" s="39" t="n">
         <f aca="false">C11</f>
         <v>13</v>
       </c>
@@ -8939,16 +9597,16 @@
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="37" t="n">
         <f aca="false">B12^0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="35" t="n">
+      <c r="F12" s="38" t="n">
         <f aca="false">B12^1</f>
         <v>3</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="36" t="n">
+      <c r="J12" s="39" t="n">
         <f aca="false">C12</f>
         <v>17</v>
       </c>
@@ -8965,16 +9623,16 @@
         <v>21</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="37" t="n">
         <f aca="false">B13^0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="35" t="n">
+      <c r="F13" s="38" t="n">
         <f aca="false">B13^1</f>
         <v>4</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="36" t="n">
+      <c r="J13" s="39" t="n">
         <f aca="false">C13</f>
         <v>21</v>
       </c>
@@ -8991,16 +9649,16 @@
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="37" t="n">
         <f aca="false">B14^0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="35" t="n">
+      <c r="F14" s="38" t="n">
         <f aca="false">B14^1</f>
         <v>5</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="36" t="n">
+      <c r="J14" s="39" t="n">
         <f aca="false">C14</f>
         <v>25</v>
       </c>
@@ -9017,16 +9675,16 @@
         <v>29</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="37" t="n">
         <f aca="false">B15^0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="35" t="n">
+      <c r="F15" s="38" t="n">
         <f aca="false">B15^1</f>
         <v>6</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="36" t="n">
+      <c r="J15" s="39" t="n">
         <f aca="false">C15</f>
         <v>29</v>
       </c>
@@ -9043,16 +9701,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="37" t="n">
         <f aca="false">B16^0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="38" t="n">
         <f aca="false">B16^1</f>
         <v>7</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="36" t="n">
+      <c r="J16" s="39" t="n">
         <f aca="false">C16</f>
         <v>33</v>
       </c>
@@ -9069,16 +9727,16 @@
         <v>37</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="37" t="n">
         <f aca="false">B17^0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="35" t="n">
+      <c r="F17" s="38" t="n">
         <f aca="false">B17^1</f>
         <v>8</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="36" t="n">
+      <c r="J17" s="39" t="n">
         <f aca="false">C17</f>
         <v>37</v>
       </c>
@@ -9095,16 +9753,16 @@
         <v>41</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="34" t="n">
+      <c r="E18" s="37" t="n">
         <f aca="false">B18^0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="35" t="n">
+      <c r="F18" s="38" t="n">
         <f aca="false">B18^1</f>
         <v>9</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="36" t="n">
+      <c r="J18" s="39" t="n">
         <f aca="false">C18</f>
         <v>41</v>
       </c>
@@ -9121,16 +9779,16 @@
         <v>45</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="34" t="n">
+      <c r="E19" s="37" t="n">
         <f aca="false">B19^0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="35" t="n">
+      <c r="F19" s="38" t="n">
         <f aca="false">B19^1</f>
         <v>10</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="36" t="n">
+      <c r="J19" s="39" t="n">
         <f aca="false">C19</f>
         <v>45</v>
       </c>
@@ -9147,16 +9805,16 @@
         <v>49</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="34" t="n">
+      <c r="E20" s="37" t="n">
         <f aca="false">B20^0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="35" t="n">
+      <c r="F20" s="38" t="n">
         <f aca="false">B20^1</f>
         <v>11</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="36" t="n">
+      <c r="J20" s="39" t="n">
         <f aca="false">C20</f>
         <v>49</v>
       </c>
@@ -9173,16 +9831,16 @@
         <v>53</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="37" t="n">
         <f aca="false">B21^0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="35" t="n">
+      <c r="F21" s="38" t="n">
         <f aca="false">B21^1</f>
         <v>12</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="36" t="n">
+      <c r="J21" s="39" t="n">
         <f aca="false">C21</f>
         <v>53</v>
       </c>
@@ -9197,23 +9855,23 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9223,25 +9881,25 @@
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
-      <c r="C27" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38" t="n">
+      <c r="C27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="n">
         <f aca="false" t="array" ref="E27:F28">MMULT(TRANSPOSE(E9:F21),E9:F21)</f>
         <v>13</v>
       </c>
-      <c r="F27" s="39" t="n">
+      <c r="F27" s="42" t="n">
         <v>78</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="41" t="n">
         <v>78</v>
       </c>
-      <c r="F28" s="39" t="n">
+      <c r="F28" s="42" t="n">
         <v>650</v>
       </c>
       <c r="G28" s="11"/>
@@ -9255,15 +9913,15 @@
     <row r="30" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38" t="n">
+      <c r="C30" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41" t="n">
         <f aca="false" t="array" ref="E30:F31">MINVERSE(E27:F28)</f>
         <v>0.274725274725275</v>
       </c>
-      <c r="F30" s="39" t="n">
+      <c r="F30" s="42" t="n">
         <v>-0.032967032967033</v>
       </c>
       <c r="G30" s="11"/>
@@ -9297,10 +9955,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="38" t="n">
+      <c r="E31" s="41" t="n">
         <v>-0.032967032967033</v>
       </c>
-      <c r="F31" s="39" t="n">
+      <c r="F31" s="42" t="n">
         <v>0.00549450549450549</v>
       </c>
       <c r="G31" s="11"/>
@@ -9362,11 +10020,11 @@
     <row r="33" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="40" t="n">
+      <c r="C33" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="43" t="n">
         <f aca="false" t="array" ref="E33:E34">MMULT(TRANSPOSE(E9:F21),J9:J21)</f>
         <v>377</v>
       </c>
@@ -9402,7 +10060,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="40" t="n">
+      <c r="E34" s="43" t="n">
         <v>2990</v>
       </c>
       <c r="F34" s="10"/>
@@ -9439,18 +10097,18 @@
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E36" s="43" t="n">
         <f aca="false" t="array" ref="E36:E37">MMULT(E30:F31,E33:E34)</f>
         <v>5.00000000000003</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="40" t="n">
+      <c r="E37" s="43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9476,7 +10134,7 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -9512,7 +10170,7 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -9644,7 +10302,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C44" s="14" t="n">
         <f aca="false">E37</f>
@@ -9710,8 +10368,8 @@
       <c r="D46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -10179,14 +10837,14 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10197,16 +10855,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10230,26 +10888,26 @@
         <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="38" t="n">
         <f aca="false">B9^1</f>
         <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="J9" s="39" t="n">
         <f aca="false">C9</f>
         <v>49</v>
       </c>
@@ -10263,19 +10921,19 @@
         <v>53</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="38" t="n">
         <f aca="false">B10^1</f>
         <v>12</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>59</v>
+      <c r="H10" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="36" t="n">
+      <c r="J10" s="39" t="n">
         <f aca="false">C10</f>
         <v>53</v>
       </c>
@@ -10288,23 +10946,23 @@
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10314,15 +10972,15 @@
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="C16" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38" t="n">
+      <c r="C16" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41" t="n">
         <f aca="false" t="array" ref="E16:F17">TRANSPOSE(E9:F10)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="42" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="10"/>
@@ -10331,10 +10989,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="42" t="n">
         <v>12</v>
       </c>
       <c r="I17" s="10"/>
@@ -10346,25 +11004,25 @@
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2"/>
-      <c r="C19" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38" t="n">
+      <c r="C19" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="n">
         <f aca="false" t="array" ref="E19:F20">MMULT(E16:F17,E9:F10)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="39" t="n">
+      <c r="F19" s="42" t="n">
         <v>23</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="F20" s="39" t="n">
+      <c r="F20" s="42" t="n">
         <v>265</v>
       </c>
       <c r="G20" s="11"/>
@@ -10376,25 +11034,25 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38" t="n">
+      <c r="C22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="n">
         <f aca="false" t="array" ref="E22:F23">MINVERSE(E19:F20)</f>
         <v>265</v>
       </c>
-      <c r="F22" s="39" t="n">
+      <c r="F22" s="42" t="n">
         <v>-23</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="38" t="n">
+      <c r="E23" s="41" t="n">
         <v>-23</v>
       </c>
-      <c r="F23" s="39" t="n">
+      <c r="F23" s="42" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="11"/>
@@ -10406,17 +11064,17 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="40" t="n">
+      <c r="C25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="43" t="n">
         <f aca="false" t="array" ref="E25:E26">MMULT(E16:F17,J9:J10)</f>
         <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="40" t="n">
+      <c r="E26" s="43" t="n">
         <v>1175</v>
       </c>
     </row>
@@ -10427,18 +11085,18 @@
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E28" s="43" t="n">
         <f aca="false" t="array" ref="E28:E29">MMULT(E22:F23,E25:E26)</f>
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="40" t="n">
+      <c r="E29" s="43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10472,7 +11130,7 @@
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -10508,7 +11166,7 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -10648,7 +11306,7 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C36" s="14" t="n">
         <f aca="false">E29</f>
@@ -10722,8 +11380,8 @@
       <c r="D38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -10945,27 +11603,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -10974,7 +11632,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -10983,40 +11641,40 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="n">
         <v>0</v>
       </c>
@@ -11030,7 +11688,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <f aca="false">B11+1</f>
         <v>1</v>
@@ -11045,7 +11703,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>2</v>
@@ -11060,7 +11718,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>3</v>
@@ -11075,7 +11733,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>4</v>
@@ -11090,7 +11748,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>5</v>
@@ -11105,7 +11763,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>6</v>
@@ -11120,7 +11778,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>7</v>
@@ -11135,7 +11793,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="7" t="n">
         <f aca="false">B18+1</f>
         <v>8</v>
@@ -11150,7 +11808,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="n">
         <f aca="false">B19+1</f>
         <v>9</v>
@@ -11165,7 +11823,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7" t="n">
         <f aca="false">B20+1</f>
         <v>10</v>
@@ -11180,7 +11838,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7" t="n">
         <f aca="false">B21+1</f>
         <v>11</v>
@@ -11195,7 +11853,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="7" t="n">
         <f aca="false">B22+1</f>
         <v>12</v>
@@ -11210,7 +11868,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
+      <c r="A24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
@@ -11300,56 +11958,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
+      <c r="A1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7" t="n">
         <v>0</v>
       </c>
@@ -11371,16 +12029,16 @@
         <f aca="false">B6^2</f>
         <v>0</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="L6" s="33" t="n">
+      <c r="L6" s="36" t="n">
         <f aca="false" t="array" ref="L6:L18">MMULT(F6:H18,J6:J8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="n">
         <f aca="false">B6+1</f>
         <v>1</v>
@@ -11404,15 +12062,15 @@
         <f aca="false">B7^2</f>
         <v>1</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="33" t="n">
+      <c r="L7" s="36" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="7" t="n">
         <f aca="false">B7+1</f>
         <v>2</v>
@@ -11436,15 +12094,15 @@
         <f aca="false">B8^2</f>
         <v>4</v>
       </c>
-      <c r="J8" s="33" t="n">
+      <c r="J8" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="33" t="n">
+      <c r="L8" s="36" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7" t="n">
         <f aca="false">B8+1</f>
         <v>3</v>
@@ -11468,13 +12126,13 @@
         <f aca="false">B9^2</f>
         <v>9</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="L9" s="33" t="n">
+      <c r="J9" s="36"/>
+      <c r="L9" s="36" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="n">
         <f aca="false">B9+1</f>
         <v>4</v>
@@ -11498,12 +12156,12 @@
         <f aca="false">B10^2</f>
         <v>16</v>
       </c>
-      <c r="L10" s="33" t="n">
+      <c r="L10" s="36" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="n">
         <f aca="false">B10+1</f>
         <v>5</v>
@@ -11527,12 +12185,12 @@
         <f aca="false">B11^2</f>
         <v>25</v>
       </c>
-      <c r="L11" s="33" t="n">
+      <c r="L11" s="36" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="n">
         <f aca="false">B11+1</f>
         <v>6</v>
@@ -11556,12 +12214,12 @@
         <f aca="false">B12^2</f>
         <v>36</v>
       </c>
-      <c r="L12" s="33" t="n">
+      <c r="L12" s="36" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="n">
         <f aca="false">B12+1</f>
         <v>7</v>
@@ -11585,12 +12243,12 @@
         <f aca="false">B13^2</f>
         <v>49</v>
       </c>
-      <c r="L13" s="33" t="n">
+      <c r="L13" s="36" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="n">
         <f aca="false">B13+1</f>
         <v>8</v>
@@ -11614,12 +12272,12 @@
         <f aca="false">B14^2</f>
         <v>64</v>
       </c>
-      <c r="L14" s="33" t="n">
+      <c r="L14" s="36" t="n">
         <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="n">
         <f aca="false">B14+1</f>
         <v>9</v>
@@ -11643,12 +12301,12 @@
         <f aca="false">B15^2</f>
         <v>81</v>
       </c>
-      <c r="L15" s="33" t="n">
+      <c r="L15" s="36" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7" t="n">
         <f aca="false">B15+1</f>
         <v>10</v>
@@ -11672,12 +12330,12 @@
         <f aca="false">B16^2</f>
         <v>100</v>
       </c>
-      <c r="L16" s="33" t="n">
+      <c r="L16" s="36" t="n">
         <v>345</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="n">
         <f aca="false">B16+1</f>
         <v>11</v>
@@ -11701,12 +12359,12 @@
         <f aca="false">B17^2</f>
         <v>121</v>
       </c>
-      <c r="L17" s="33" t="n">
+      <c r="L17" s="36" t="n">
         <v>412</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="7" t="n">
         <f aca="false">B17+1</f>
         <v>12</v>
@@ -11730,12 +12388,12 @@
         <f aca="false">B18^2</f>
         <v>144</v>
       </c>
-      <c r="L18" s="33" t="n">
+      <c r="L18" s="36" t="n">
         <v>485</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
@@ -11819,14 +12477,14 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11837,16 +12495,16 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11870,30 +12528,30 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="36" t="n">
         <f aca="false">B9^1</f>
         <v>0</v>
       </c>
-      <c r="G9" s="35" t="n">
+      <c r="G9" s="38" t="n">
         <f aca="false">B9^2</f>
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="K9" s="39" t="n">
         <f aca="false">C9</f>
         <v>5</v>
       </c>
@@ -11909,22 +12567,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="37" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="36" t="n">
         <f aca="false">B10^1</f>
         <v>1</v>
       </c>
-      <c r="G10" s="35" t="n">
+      <c r="G10" s="38" t="n">
         <f aca="false">B10^2</f>
         <v>1</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="36" t="n">
+      <c r="I10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="39" t="n">
         <f aca="false">C10</f>
         <v>12</v>
       </c>
@@ -11940,22 +12598,22 @@
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="36" t="n">
         <f aca="false">B11^1</f>
         <v>2</v>
       </c>
-      <c r="G11" s="35" t="n">
+      <c r="G11" s="38" t="n">
         <f aca="false">B11^2</f>
         <v>4</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="36" t="n">
+      <c r="I11" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="39" t="n">
         <f aca="false">C11</f>
         <v>25</v>
       </c>
@@ -11971,20 +12629,20 @@
         <v>44</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="37" t="n">
         <f aca="false">B12^0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="36" t="n">
         <f aca="false">B12^1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="35" t="n">
+      <c r="G12" s="38" t="n">
         <f aca="false">B12^2</f>
         <v>9</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="K12" s="36" t="n">
+      <c r="K12" s="39" t="n">
         <f aca="false">C12</f>
         <v>44</v>
       </c>
@@ -12000,20 +12658,20 @@
         <v>69</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="37" t="n">
         <f aca="false">B13^0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="33" t="n">
+      <c r="F13" s="36" t="n">
         <f aca="false">B13^1</f>
         <v>4</v>
       </c>
-      <c r="G13" s="35" t="n">
+      <c r="G13" s="38" t="n">
         <f aca="false">B13^2</f>
         <v>16</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="K13" s="36" t="n">
+      <c r="K13" s="39" t="n">
         <f aca="false">C13</f>
         <v>69</v>
       </c>
@@ -12029,20 +12687,20 @@
         <v>100</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="37" t="n">
         <f aca="false">B14^0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="33" t="n">
+      <c r="F14" s="36" t="n">
         <f aca="false">B14^1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="35" t="n">
+      <c r="G14" s="38" t="n">
         <f aca="false">B14^2</f>
         <v>25</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="K14" s="36" t="n">
+      <c r="K14" s="39" t="n">
         <f aca="false">C14</f>
         <v>100</v>
       </c>
@@ -12058,20 +12716,20 @@
         <v>137</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="37" t="n">
         <f aca="false">B15^0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="33" t="n">
+      <c r="F15" s="36" t="n">
         <f aca="false">B15^1</f>
         <v>6</v>
       </c>
-      <c r="G15" s="35" t="n">
+      <c r="G15" s="38" t="n">
         <f aca="false">B15^2</f>
         <v>36</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="K15" s="36" t="n">
+      <c r="K15" s="39" t="n">
         <f aca="false">C15</f>
         <v>137</v>
       </c>
@@ -12087,20 +12745,20 @@
         <v>180</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="37" t="n">
         <f aca="false">B16^0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="33" t="n">
+      <c r="F16" s="36" t="n">
         <f aca="false">B16^1</f>
         <v>7</v>
       </c>
-      <c r="G16" s="35" t="n">
+      <c r="G16" s="38" t="n">
         <f aca="false">B16^2</f>
         <v>49</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="K16" s="36" t="n">
+      <c r="K16" s="39" t="n">
         <f aca="false">C16</f>
         <v>180</v>
       </c>
@@ -12116,20 +12774,20 @@
         <v>229</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="37" t="n">
         <f aca="false">B17^0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="33" t="n">
+      <c r="F17" s="36" t="n">
         <f aca="false">B17^1</f>
         <v>8</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="G17" s="38" t="n">
         <f aca="false">B17^2</f>
         <v>64</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="K17" s="36" t="n">
+      <c r="K17" s="39" t="n">
         <f aca="false">C17</f>
         <v>229</v>
       </c>
@@ -12145,20 +12803,20 @@
         <v>284</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="34" t="n">
+      <c r="E18" s="37" t="n">
         <f aca="false">B18^0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="33" t="n">
+      <c r="F18" s="36" t="n">
         <f aca="false">B18^1</f>
         <v>9</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="38" t="n">
         <f aca="false">B18^2</f>
         <v>81</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="K18" s="36" t="n">
+      <c r="K18" s="39" t="n">
         <f aca="false">C18</f>
         <v>284</v>
       </c>
@@ -12174,20 +12832,20 @@
         <v>345</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="34" t="n">
+      <c r="E19" s="37" t="n">
         <f aca="false">B19^0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="33" t="n">
+      <c r="F19" s="36" t="n">
         <f aca="false">B19^1</f>
         <v>10</v>
       </c>
-      <c r="G19" s="35" t="n">
+      <c r="G19" s="38" t="n">
         <f aca="false">B19^2</f>
         <v>100</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="K19" s="36" t="n">
+      <c r="K19" s="39" t="n">
         <f aca="false">C19</f>
         <v>345</v>
       </c>
@@ -12203,20 +12861,20 @@
         <v>412</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="34" t="n">
+      <c r="E20" s="37" t="n">
         <f aca="false">B20^0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="33" t="n">
+      <c r="F20" s="36" t="n">
         <f aca="false">B20^1</f>
         <v>11</v>
       </c>
-      <c r="G20" s="35" t="n">
+      <c r="G20" s="38" t="n">
         <f aca="false">B20^2</f>
         <v>121</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="K20" s="36" t="n">
+      <c r="K20" s="39" t="n">
         <f aca="false">C20</f>
         <v>412</v>
       </c>
@@ -12232,20 +12890,20 @@
         <v>485</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="37" t="n">
         <f aca="false">B21^0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="33" t="n">
+      <c r="F21" s="36" t="n">
         <f aca="false">B21^1</f>
         <v>12</v>
       </c>
-      <c r="G21" s="35" t="n">
+      <c r="G21" s="38" t="n">
         <f aca="false">B21^2</f>
         <v>144</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="K21" s="36" t="n">
+      <c r="K21" s="39" t="n">
         <f aca="false">C21</f>
         <v>485</v>
       </c>
@@ -12259,23 +12917,23 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12285,42 +12943,42 @@
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
-      <c r="C27" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38" t="n">
+      <c r="C27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="n">
         <f aca="false" t="array" ref="E27:G29">MMULT(TRANSPOSE(E9:G21),E9:G21)</f>
         <v>13</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="G27" s="39" t="n">
+      <c r="G27" s="42" t="n">
         <v>650</v>
       </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="41" t="n">
         <v>78</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>650</v>
       </c>
-      <c r="G28" s="39" t="n">
+      <c r="G28" s="42" t="n">
         <v>6084</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="38" t="n">
+      <c r="E29" s="41" t="n">
         <v>650</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>6084</v>
       </c>
-      <c r="G29" s="39" t="n">
+      <c r="G29" s="42" t="n">
         <v>60710</v>
       </c>
       <c r="H29" s="11"/>
@@ -12331,42 +12989,42 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38" t="n">
+      <c r="C31" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41" t="n">
         <f aca="false" t="array" ref="E31:G33">MINVERSE(E27:G29)</f>
         <v>0.516483516483517</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>-0.164835164835165</v>
       </c>
-      <c r="G31" s="39" t="n">
+      <c r="G31" s="42" t="n">
         <v>0.010989010989011</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="38" t="n">
+      <c r="E32" s="41" t="n">
         <v>-0.164835164835165</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>0.0774225774225774</v>
       </c>
-      <c r="G32" s="39" t="n">
+      <c r="G32" s="42" t="n">
         <v>-0.00599400599400599</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="41" t="n">
         <v>0.010989010989011</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>-0.005994005994006</v>
       </c>
-      <c r="G33" s="39" t="n">
+      <c r="G33" s="42" t="n">
         <v>0.000499500499500499</v>
       </c>
       <c r="H33" s="11"/>
@@ -12377,22 +13035,22 @@
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="40" t="n">
+      <c r="C35" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="43" t="n">
         <f aca="false" t="array" ref="E35:E37">MMULT(TRANSPOSE(E9:G21),K9:K21)</f>
         <v>2327</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="40" t="n">
+      <c r="E36" s="43" t="n">
         <v>21242</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="40" t="n">
+      <c r="E37" s="43" t="n">
         <v>209716</v>
       </c>
     </row>
@@ -12403,23 +13061,23 @@
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E39" s="43" t="n">
         <f aca="false" t="array" ref="E39:E41">MMULT(E31:G33,E35:E37)</f>
         <v>4.99999999999795</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="40" t="n">
+      <c r="E40" s="43" t="n">
         <v>4.00000000000074</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="40" t="n">
+      <c r="E41" s="43" t="n">
         <v>2.99999999999996</v>
       </c>
     </row>
@@ -12445,7 +13103,7 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -12481,7 +13139,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -12613,7 +13271,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C48" s="14" t="n">
         <f aca="false">E40</f>
@@ -12652,7 +13310,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C49" s="14" t="n">
         <f aca="false">E41</f>
@@ -12718,8 +13376,8 @@
       <c r="D51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>

--- a/python/math/polynomial/examples-polynomial.xlsx
+++ b/python/math/polynomial/examples-polynomial.xlsx
@@ -1080,11 +1080,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39614498"/>
-        <c:axId val="25355269"/>
+        <c:axId val="96028058"/>
+        <c:axId val="19421285"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39614498"/>
+        <c:axId val="96028058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,12 +1116,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25355269"/>
+        <c:crossAx val="19421285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25355269"/>
+        <c:axId val="19421285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39614498"/>
+        <c:crossAx val="96028058"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,11 +1386,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95219069"/>
-        <c:axId val="37438929"/>
+        <c:axId val="66027157"/>
+        <c:axId val="90140569"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95219069"/>
+        <c:axId val="66027157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,12 +1422,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37438929"/>
+        <c:crossAx val="90140569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37438929"/>
+        <c:axId val="90140569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95219069"/>
+        <c:crossAx val="66027157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1692,11 +1692,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75065503"/>
-        <c:axId val="19478245"/>
+        <c:axId val="39489284"/>
+        <c:axId val="73978760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75065503"/>
+        <c:axId val="39489284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,12 +1728,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19478245"/>
+        <c:crossAx val="73978760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19478245"/>
+        <c:axId val="73978760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75065503"/>
+        <c:crossAx val="39489284"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2588,8 +2588,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4668,8 +4668,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4681,7 +4681,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="10" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="2.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="2" width="11.56"/>
   </cols>
@@ -6093,8 +6095,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7149,8 +7151,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7164,6 +7166,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="2.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7185,7 +7188,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -7208,7 +7211,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -7231,7 +7234,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -7252,7 +7255,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -7283,7 +7286,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -7328,7 +7331,7 @@
         <v>30</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -7383,7 +7386,7 @@
         <v>4355.99999999987</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -7438,7 +7441,7 @@
         <v>1088.99999999997</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -7493,7 +7496,7 @@
         <v>35.9999999999984</v>
       </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -7548,7 +7551,7 @@
         <v>224.999999999996</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -7603,7 +7606,7 @@
         <v>899.999999999977</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -7658,7 +7661,7 @@
         <v>1520.99999999993</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -7713,7 +7716,7 @@
         <v>1763.99999999995</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -7768,7 +7771,7 @@
         <v>1520.99999999997</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -7823,7 +7826,7 @@
         <v>899.999999999995</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -7878,7 +7881,7 @@
         <v>224.999999999974</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -7933,7 +7936,7 @@
         <v>35.9999999999959</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="2"/>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -7988,7 +7991,7 @@
         <v>1088.99999999996</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -8043,7 +8046,7 @@
         <v>4355.99999999989</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -8064,7 +8067,7 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
@@ -8105,7 +8108,7 @@
         <v>38</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="2"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
@@ -8156,7 +8159,7 @@
         <v>18017.9999999995</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -8177,7 +8180,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -8214,7 +8217,7 @@
         <v>46</v>
       </c>
       <c r="R24" s="1"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
@@ -8256,7 +8259,7 @@
         <v>1637.99999999995</v>
       </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="2"/>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
@@ -8304,7 +8307,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -8325,7 +8328,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -8358,7 +8361,7 @@
         <v>59</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="2"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
@@ -8395,7 +8398,7 @@
         <v>67</v>
       </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="2"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
@@ -8440,7 +8443,7 @@
         <v>2.99999999999996</v>
       </c>
       <c r="R30" s="1"/>
-      <c r="S30" s="2"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -8461,7 +8464,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="2"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -8486,7 +8489,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="2"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
@@ -8516,7 +8519,7 @@
       <c r="R33" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="S33" s="2"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -8545,7 +8548,7 @@
       <c r="R34" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S34" s="2"/>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
@@ -8577,7 +8580,7 @@
         <f aca="false">_xlfn.T.DIST.2T(Q35,$E$30)</f>
         <v>3.91117071946751E-008</v>
       </c>
-      <c r="S35" s="2"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -8598,7 +8601,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="2"/>
+      <c r="S36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9432,8 +9435,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9444,7 +9447,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="2.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="2.56"/>
   </cols>
@@ -10817,7 +10820,7 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12454,8 +12457,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12467,7 +12470,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="10" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="10" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="2.56"/>
   </cols>
   <sheetData>
